--- a/ExtraClase/RestriccionesTecnicas.xlsx
+++ b/ExtraClase/RestriccionesTecnicas.xlsx
@@ -5,33 +5,146 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a956f53eadd4fd8/Escritorio/U/2024-2/IS2/Clase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arias Ramirez\OneDrive\Escritorio\U\2024-2\IS2\ExtraClase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4D2F04E46CFB4ACB3E202A4556F4B4693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34DFCA21-C840-4847-A9A0-2C676528E42B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0F374D-26E1-4E03-B9BA-34CC8E717965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RestriccionesTecnicas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">Ej </t>
+  </si>
+  <si>
+    <t>Restricción técnica</t>
+  </si>
+  <si>
+    <t>Justificación</t>
+  </si>
+  <si>
+    <t>El diseño y desarrollo del software debe propender por seguir los principios SOLID.</t>
+  </si>
+  <si>
+    <t>Aplicar la metodología SOLID en el desarrollo de esta plataforma, permite lograr un software de mayor calidad, más mantenible, escalable y colaborativo. Esto contribuye a un desarrollo más eficiente y efectivo, lo que a su vez puede tener un impacto positivo en la satisfacción de los clientes y el éxito de la plataforma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacer uso del Manifiesto de aplicaciones reactivas </t>
+  </si>
+  <si>
+    <t>Utilizar el Manifiesto de Aplicaciones Reactivas proporciona una guía fundamentada en principios sólidos para el diseño de sistemas de software que sean receptivos, resilientes, elásticos y orientados a mensajes. Este enfoque permite abordar eficazmente los desafíos contemporáneos del desarrollo de software, como la gestión de grandes volúmenes de datos, la alta concurrencia y la necesidad de escalabilidad. Al seguir dichos principios del manifiesto, se puede desarrollar una solución más robustas y eficientes, lo que contribuye al éxito y la innovación en el proyecto.</t>
+  </si>
+  <si>
+    <t>Propender por la adopción de Well-Architected Framework</t>
+  </si>
+  <si>
+    <t>La adopción de la metodología Well-Architected Framework (Marco de Buenas Prácticas  de Arquitectura) en nuestro proyecto de desarrollo proporciona una estructura sólida y bien fundamentada para diseñar, construir y operar sistemas en la nube de manera eficiente y segura. Este marco ofrece directrices detalladas y mejores prácticas probadas en la industria, abordando aspectos críticos como la excelencia operativa, la seguridad, la confiabilidad, el rendimiento y la optimización de costos. Al seguir este enfoque, Se logran  mitigar riesgos, optimizar recursos y garantizar la entrega de soluciones que sean escalables, seguras y rentables en la nube.</t>
+  </si>
+  <si>
+    <t>Hacer uso del framework SCRUM para el desarrollo agil de la plataforma.</t>
+  </si>
+  <si>
+    <t>Scrum es un marco de trabajo que promueve la entrega rápida, la adaptabilidad, la calidad y la satisfacción del cliente en el desarrollo de software. Estos beneficios son especialmente valiosos en proyectos, donde los requisitos pueden cambiar con frecuencia y la entrega rápida de funcionalidades es esencial.</t>
+  </si>
+  <si>
+    <t>Propender por el uso de prácticas DevOps</t>
+  </si>
+  <si>
+    <t>La implementación de DevOps es fundamental para garantizar la entrega continua, la eficiencia operativa y la fiabilidad del sistema. Además, facilita la automatización de pruebas, despliegues y monitoreo continuo, agilizando así el ciclo de vida del software y permitiendo una respuesta rápida a los cambios del mercado y a las necesidades del cliente. De igual forma, promueve la escalabilidad y la estabilidad del aplicativo, asegurando una experiencia de usuario óptima y minimizando tiempos de inactividad, lo que resulta crucial en un entorno tan competitivo como el comercio electrónico.</t>
+  </si>
+  <si>
+    <t>Propender por la adopción de los 12 factores de aplicación (Más los 3 extendidos)</t>
+  </si>
+  <si>
+    <t>Es crucial adoptar los 12 factores de aplicación nuestro proeycto para así poder garantizar su escalabilidad, portabilidad y confiabilidad. Al seguir estos principios, se facilita la gestión de dependencias, la configuración flexible para diferentes entornos, la rápida recuperación ante fallos, la administración eficiente de registros y la adecuada separación de procesos, entre otros aspectos. Esto permite una rápida adaptación a cambios del mercado, una experiencia de usuario óptima y una mayor eficiencia operativa, elementos esenciales para el éxito en un entorno competitivo como lo es la venta de productos a nivel electrónico.</t>
+  </si>
+  <si>
+    <t>Propender por aplicación de prácticas de código limpio (Clean Code), evitando Messy Code  y Code Smells</t>
+  </si>
+  <si>
+    <t>Facilitar la comprensión del código, mejorar la legibilidad y reducir la posibilidad de errores al dar nombres descriptivos a variables, métodos y clases.</t>
+  </si>
+  <si>
+    <t>Propender por el uso de patrones de diseño y de implementación como por ejemplo patrones GoF, GRASP, DRY, KISS.</t>
+  </si>
+  <si>
+    <t>La adopción de patrones de diseño como lo son GoF, GRASP, DRY y KISS, dentro de nuestro proyecto  se justifica por su capacidad para mejorar la calidad del software y facilitar su mantenimiento a lo largo del tiempo. Los patrones GoF promueven la reutilización y la modularidad del código. Los principios GRASP ayudan a asignar responsabilidades de manera clara y coherente en el diseño de clases y objetos, fomentando una estructura más comprensible y adaptable. Por otro lado, los principios DRY (Don't Repeat Yourself) y KISS (Keep It Simple, Stupid) abogan por evitar la duplicación innecesaria de código y por mantener la simplicidad en el diseño, respectivamente, lo que conduce a sistemas más legibles, mantenibles y menos propensos a errores. En conjunto, estas prácticas y principios promueven un desarrollo de software más eficiente, escalable y robusto.</t>
+  </si>
+  <si>
+    <t>Propender por la aplicación de Cloud Adoption Framework</t>
+  </si>
+  <si>
+    <t>El uso de Cloud AdoptionFramework (CAF) proporcionará una guía estructurada para planificar y ejecutar la adopción de la nube en el proyecto. Nos ayudará a centrarnos en la planificación de la estrategia de adopción, gobernanza, gestión del cambio y desarrollo de habilidades, ayudando con esto una implementación en la nube de manera efectiva abordando consideraciones que van mas allá del diseño y arquitectura técnica.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -43,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +164,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,14 +480,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="189" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="189" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>